--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Thy1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H2">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="I2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="J2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29184975659483</v>
+        <v>2.015745</v>
       </c>
       <c r="N2">
-        <v>1.29184975659483</v>
+        <v>6.047235</v>
       </c>
       <c r="O2">
-        <v>0.01249437096093258</v>
+        <v>0.01857080082826053</v>
       </c>
       <c r="P2">
-        <v>0.01249437096093258</v>
+        <v>0.01857080082826054</v>
       </c>
       <c r="Q2">
-        <v>131.5442284184427</v>
+        <v>0.11326605538</v>
       </c>
       <c r="R2">
-        <v>131.5442284184427</v>
+        <v>1.01939449842</v>
       </c>
       <c r="S2">
-        <v>0.003314155423019792</v>
+        <v>2.440036010527756E-06</v>
       </c>
       <c r="T2">
-        <v>0.003314155423019792</v>
+        <v>2.440036010527756E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H3">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="I3">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="J3">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.4617696742297</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N3">
-        <v>80.4617696742297</v>
+        <v>242.383774</v>
       </c>
       <c r="O3">
-        <v>0.7782013297992554</v>
+        <v>0.7443502346040984</v>
       </c>
       <c r="P3">
-        <v>0.7782013297992554</v>
+        <v>0.7443502346040985</v>
       </c>
       <c r="Q3">
-        <v>8193.121030481105</v>
+        <v>4.539901950080889</v>
       </c>
       <c r="R3">
-        <v>8193.121030481105</v>
+        <v>40.859117550728</v>
       </c>
       <c r="S3">
-        <v>0.2064193680033743</v>
+        <v>9.78009184243082E-05</v>
       </c>
       <c r="T3">
-        <v>0.2064193680033743</v>
+        <v>9.780091842430821E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H4">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="I4">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="J4">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.47011368952789</v>
+        <v>0.1439546666666667</v>
       </c>
       <c r="N4">
-        <v>1.47011368952789</v>
+        <v>0.431864</v>
       </c>
       <c r="O4">
-        <v>0.01421848453965969</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="P4">
-        <v>0.01421848453965969</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="Q4">
-        <v>149.6961778946162</v>
+        <v>0.008088908689777779</v>
       </c>
       <c r="R4">
-        <v>149.6961778946162</v>
+        <v>0.072800178208</v>
       </c>
       <c r="S4">
-        <v>0.00377147979610804</v>
+        <v>1.742554591727556E-07</v>
       </c>
       <c r="T4">
-        <v>0.00377147979610804</v>
+        <v>1.742554591727557E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H5">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="I5">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="J5">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.1708083603022</v>
+        <v>1.513283</v>
       </c>
       <c r="N5">
-        <v>20.1708083603022</v>
+        <v>4.539849</v>
       </c>
       <c r="O5">
-        <v>0.1950858147001523</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="P5">
-        <v>0.1950858147001523</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="Q5">
-        <v>2053.917964366202</v>
+        <v>0.08503238062533335</v>
       </c>
       <c r="R5">
-        <v>2053.917964366202</v>
+        <v>0.765291425628</v>
       </c>
       <c r="S5">
-        <v>0.0517468796760046</v>
+        <v>1.831811570471203E-06</v>
       </c>
       <c r="T5">
-        <v>0.0517468796760046</v>
+        <v>1.831811570471203E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H6">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="I6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="J6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.29184975659483</v>
+        <v>0.5362146666666666</v>
       </c>
       <c r="N6">
-        <v>1.29184975659483</v>
+        <v>1.608644</v>
       </c>
       <c r="O6">
-        <v>0.01249437096093258</v>
+        <v>0.004940077130717814</v>
       </c>
       <c r="P6">
-        <v>0.01249437096093258</v>
+        <v>0.004940077130717815</v>
       </c>
       <c r="Q6">
-        <v>127.3091357069476</v>
+        <v>0.03013025959644444</v>
       </c>
       <c r="R6">
-        <v>127.3091357069476</v>
+        <v>0.271172336368</v>
       </c>
       <c r="S6">
-        <v>0.003207455527132719</v>
+        <v>6.490816527089508E-07</v>
       </c>
       <c r="T6">
-        <v>0.003207455527132719</v>
+        <v>6.490816527089509E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H7">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="I7">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="J7">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4617696742297</v>
+        <v>23.53999566666667</v>
       </c>
       <c r="N7">
-        <v>80.4617696742297</v>
+        <v>70.61998700000001</v>
       </c>
       <c r="O7">
-        <v>0.7782013297992554</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="P7">
-        <v>0.7782013297992554</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="Q7">
-        <v>7929.341862228953</v>
+        <v>1.322728049840445</v>
       </c>
       <c r="R7">
-        <v>7929.341862228953</v>
+        <v>11.904552448564</v>
       </c>
       <c r="S7">
-        <v>0.1997736552157204</v>
+        <v>2.849489251583608E-05</v>
       </c>
       <c r="T7">
-        <v>0.1997736552157204</v>
+        <v>2.849489251583609E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="H8">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="I8">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="J8">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.47011368952789</v>
+        <v>2.015745</v>
       </c>
       <c r="N8">
-        <v>1.47011368952789</v>
+        <v>6.047235</v>
       </c>
       <c r="O8">
-        <v>0.01421848453965969</v>
+        <v>0.01857080082826053</v>
       </c>
       <c r="P8">
-        <v>0.01421848453965969</v>
+        <v>0.01857080082826054</v>
       </c>
       <c r="Q8">
-        <v>144.8766795436625</v>
+        <v>281.79908418946</v>
       </c>
       <c r="R8">
-        <v>144.8766795436625</v>
+        <v>2536.191757705139</v>
       </c>
       <c r="S8">
-        <v>0.003650056250673272</v>
+        <v>0.006070661778139742</v>
       </c>
       <c r="T8">
-        <v>0.003650056250673272</v>
+        <v>0.006070661778139742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,309 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="H9">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="I9">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="J9">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.1708083603022</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N9">
-        <v>20.1708083603022</v>
+        <v>242.383774</v>
       </c>
       <c r="O9">
-        <v>0.1950858147001523</v>
+        <v>0.7443502346040984</v>
       </c>
       <c r="P9">
-        <v>0.1950858147001523</v>
+        <v>0.7443502346040985</v>
       </c>
       <c r="Q9">
-        <v>1987.791665208278</v>
+        <v>11295.00102701235</v>
       </c>
       <c r="R9">
-        <v>1987.791665208278</v>
+        <v>101655.0092431112</v>
       </c>
       <c r="S9">
-        <v>0.05008087854776554</v>
+        <v>0.2433227603132773</v>
       </c>
       <c r="T9">
-        <v>0.05008087854776554</v>
+        <v>0.2433227603132773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="H10">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="I10">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="J10">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.29184975659483</v>
+        <v>0.1439546666666667</v>
       </c>
       <c r="N10">
-        <v>1.29184975659483</v>
+        <v>0.431864</v>
       </c>
       <c r="O10">
-        <v>0.01249437096093258</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="P10">
-        <v>0.01249437096093258</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="Q10">
-        <v>237.068576111224</v>
+        <v>20.12471479848178</v>
       </c>
       <c r="R10">
-        <v>237.068576111224</v>
+        <v>181.122433186336</v>
       </c>
       <c r="S10">
-        <v>0.005972760010780067</v>
+        <v>0.0004335370261209531</v>
       </c>
       <c r="T10">
-        <v>0.005972760010780067</v>
+        <v>0.0004335370261209531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="H11">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="I11">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="J11">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>80.4617696742297</v>
+        <v>1.513283</v>
       </c>
       <c r="N11">
-        <v>80.4617696742297</v>
+        <v>4.539849</v>
       </c>
       <c r="O11">
-        <v>0.7782013297992554</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="P11">
-        <v>0.7782013297992554</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="Q11">
-        <v>14765.61579292188</v>
+        <v>211.5554117804973</v>
       </c>
       <c r="R11">
-        <v>14765.61579292188</v>
+        <v>1903.998706024476</v>
       </c>
       <c r="S11">
-        <v>0.3720083065801607</v>
+        <v>0.004557436217184537</v>
       </c>
       <c r="T11">
-        <v>0.3720083065801607</v>
+        <v>0.004557436217184537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="H12">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="I12">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="J12">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.47011368952789</v>
+        <v>0.5362146666666666</v>
       </c>
       <c r="N12">
-        <v>1.47011368952789</v>
+        <v>1.608644</v>
       </c>
       <c r="O12">
-        <v>0.01421848453965969</v>
+        <v>0.004940077130717814</v>
       </c>
       <c r="P12">
-        <v>0.01421848453965969</v>
+        <v>0.004940077130717815</v>
       </c>
       <c r="Q12">
-        <v>269.7819597974368</v>
+        <v>74.96226060122844</v>
       </c>
       <c r="R12">
-        <v>269.7819597974368</v>
+        <v>674.6603454110559</v>
       </c>
       <c r="S12">
-        <v>0.006796948492878373</v>
+        <v>0.001614875830926668</v>
       </c>
       <c r="T12">
-        <v>0.006796948492878373</v>
+        <v>0.001614875830926668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="H13">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="I13">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="J13">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.1708083603022</v>
+        <v>23.53999566666667</v>
       </c>
       <c r="N13">
-        <v>20.1708083603022</v>
+        <v>70.61998700000001</v>
       </c>
       <c r="O13">
-        <v>0.1950858147001523</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="P13">
-        <v>0.1950858147001523</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="Q13">
-        <v>3701.564204798607</v>
+        <v>3290.867257857777</v>
       </c>
       <c r="R13">
-        <v>3701.564204798607</v>
+        <v>29617.80532071999</v>
       </c>
       <c r="S13">
-        <v>0.09325805647638218</v>
+        <v>0.0708935663743224</v>
       </c>
       <c r="T13">
-        <v>0.09325805647638218</v>
+        <v>0.0708935663743224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>99.694255</v>
+      </c>
+      <c r="H14">
+        <v>299.082765</v>
+      </c>
+      <c r="I14">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="J14">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.015745</v>
+      </c>
+      <c r="N14">
+        <v>6.047235</v>
+      </c>
+      <c r="O14">
+        <v>0.01857080082826053</v>
+      </c>
+      <c r="P14">
+        <v>0.01857080082826054</v>
+      </c>
+      <c r="Q14">
+        <v>200.958196044975</v>
+      </c>
+      <c r="R14">
+        <v>1808.623764404775</v>
+      </c>
+      <c r="S14">
+        <v>0.004329145508911387</v>
+      </c>
+      <c r="T14">
+        <v>0.004329145508911388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>99.694255</v>
+      </c>
+      <c r="H15">
+        <v>299.082765</v>
+      </c>
+      <c r="I15">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="J15">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>80.79459133333334</v>
+      </c>
+      <c r="N15">
+        <v>242.383774</v>
+      </c>
+      <c r="O15">
+        <v>0.7443502346040984</v>
+      </c>
+      <c r="P15">
+        <v>0.7443502346040985</v>
+      </c>
+      <c r="Q15">
+        <v>8054.756591006124</v>
+      </c>
+      <c r="R15">
+        <v>72492.80931905512</v>
+      </c>
+      <c r="S15">
+        <v>0.173519736978155</v>
+      </c>
+      <c r="T15">
+        <v>0.173519736978155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>99.694255</v>
+      </c>
+      <c r="H16">
+        <v>299.082765</v>
+      </c>
+      <c r="I16">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="J16">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1439546666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.431864</v>
+      </c>
+      <c r="O16">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="P16">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="Q16">
+        <v>14.35145324710667</v>
+      </c>
+      <c r="R16">
+        <v>129.16307922396</v>
+      </c>
+      <c r="S16">
+        <v>0.0003091664365715087</v>
+      </c>
+      <c r="T16">
+        <v>0.0003091664365715088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>99.694255</v>
+      </c>
+      <c r="H17">
+        <v>299.082765</v>
+      </c>
+      <c r="I17">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="J17">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.513283</v>
+      </c>
+      <c r="N17">
+        <v>4.539849</v>
+      </c>
+      <c r="O17">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="P17">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="Q17">
+        <v>150.865621289165</v>
+      </c>
+      <c r="R17">
+        <v>1357.790591602485</v>
+      </c>
+      <c r="S17">
+        <v>0.003250025327192652</v>
+      </c>
+      <c r="T17">
+        <v>0.003250025327192652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>99.694255</v>
+      </c>
+      <c r="H18">
+        <v>299.082765</v>
+      </c>
+      <c r="I18">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="J18">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.5362146666666666</v>
+      </c>
+      <c r="N18">
+        <v>1.608644</v>
+      </c>
+      <c r="O18">
+        <v>0.004940077130717814</v>
+      </c>
+      <c r="P18">
+        <v>0.004940077130717815</v>
+      </c>
+      <c r="Q18">
+        <v>53.45752171340666</v>
+      </c>
+      <c r="R18">
+        <v>481.11769542066</v>
+      </c>
+      <c r="S18">
+        <v>0.001151609611340927</v>
+      </c>
+      <c r="T18">
+        <v>0.001151609611340927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>99.694255</v>
+      </c>
+      <c r="H19">
+        <v>299.082765</v>
+      </c>
+      <c r="I19">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="J19">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.53999566666667</v>
+      </c>
+      <c r="N19">
+        <v>70.61998700000001</v>
+      </c>
+      <c r="O19">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="P19">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="Q19">
+        <v>2346.802330691562</v>
+      </c>
+      <c r="R19">
+        <v>21121.22097622406</v>
+      </c>
+      <c r="S19">
+        <v>0.05055603090675832</v>
+      </c>
+      <c r="T19">
+        <v>0.05055603090675832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>188.11053</v>
+      </c>
+      <c r="H20">
+        <v>564.33159</v>
+      </c>
+      <c r="I20">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="J20">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.015745</v>
+      </c>
+      <c r="N20">
+        <v>6.047235</v>
+      </c>
+      <c r="O20">
+        <v>0.01857080082826053</v>
+      </c>
+      <c r="P20">
+        <v>0.01857080082826054</v>
+      </c>
+      <c r="Q20">
+        <v>379.18286029485</v>
+      </c>
+      <c r="R20">
+        <v>3412.64574265365</v>
+      </c>
+      <c r="S20">
+        <v>0.00816855350519888</v>
+      </c>
+      <c r="T20">
+        <v>0.00816855350519888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>188.11053</v>
+      </c>
+      <c r="H21">
+        <v>564.33159</v>
+      </c>
+      <c r="I21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="J21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>80.79459133333334</v>
+      </c>
+      <c r="N21">
+        <v>242.383774</v>
+      </c>
+      <c r="O21">
+        <v>0.7443502346040984</v>
+      </c>
+      <c r="P21">
+        <v>0.7443502346040985</v>
+      </c>
+      <c r="Q21">
+        <v>15198.31339684674</v>
+      </c>
+      <c r="R21">
+        <v>136784.8205716207</v>
+      </c>
+      <c r="S21">
+        <v>0.3274099363942419</v>
+      </c>
+      <c r="T21">
+        <v>0.3274099363942419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>188.11053</v>
+      </c>
+      <c r="H22">
+        <v>564.33159</v>
+      </c>
+      <c r="I22">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="J22">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1439546666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.431864</v>
+      </c>
+      <c r="O22">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="P22">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="Q22">
+        <v>27.07938864264001</v>
+      </c>
+      <c r="R22">
+        <v>243.71449778376</v>
+      </c>
+      <c r="S22">
+        <v>0.0005833582109789365</v>
+      </c>
+      <c r="T22">
+        <v>0.0005833582109789365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>188.11053</v>
+      </c>
+      <c r="H23">
+        <v>564.33159</v>
+      </c>
+      <c r="I23">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="J23">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.513283</v>
+      </c>
+      <c r="N23">
+        <v>4.539849</v>
+      </c>
+      <c r="O23">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="P23">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="Q23">
+        <v>284.66446716999</v>
+      </c>
+      <c r="R23">
+        <v>2561.98020452991</v>
+      </c>
+      <c r="S23">
+        <v>0.006132389341909754</v>
+      </c>
+      <c r="T23">
+        <v>0.006132389341909754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>188.11053</v>
+      </c>
+      <c r="H24">
+        <v>564.33159</v>
+      </c>
+      <c r="I24">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="J24">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.5362146666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.608644</v>
+      </c>
+      <c r="O24">
+        <v>0.004940077130717814</v>
+      </c>
+      <c r="P24">
+        <v>0.004940077130717815</v>
+      </c>
+      <c r="Q24">
+        <v>100.86762514044</v>
+      </c>
+      <c r="R24">
+        <v>907.80862626396</v>
+      </c>
+      <c r="S24">
+        <v>0.002172942606797511</v>
+      </c>
+      <c r="T24">
+        <v>0.002172942606797511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>188.11053</v>
+      </c>
+      <c r="H25">
+        <v>564.33159</v>
+      </c>
+      <c r="I25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="J25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.53999566666667</v>
+      </c>
+      <c r="N25">
+        <v>70.61998700000001</v>
+      </c>
+      <c r="O25">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="P25">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="Q25">
+        <v>4428.121061054371</v>
+      </c>
+      <c r="R25">
+        <v>39853.08954948933</v>
+      </c>
+      <c r="S25">
+        <v>0.09539287663633865</v>
+      </c>
+      <c r="T25">
+        <v>0.09539287663633865</v>
       </c>
     </row>
   </sheetData>
